--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Service</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,6 +842,254 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="4">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="V4" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4">
+        <v>12</v>
+      </c>
+      <c r="U5" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="V5" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>Service</t>
   </si>
@@ -202,13 +202,40 @@
   </si>
   <si>
     <t>0261</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>2020_05135</t>
+  </si>
+  <si>
+    <t>COEURET</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>INDEMNITE DEPLACEMENT 5.4€ (PROVINCE)</t>
+  </si>
+  <si>
+    <t>BRES1-OM2011001</t>
+  </si>
+  <si>
+    <t>CREDIT MUTUEL ARKEA</t>
+  </si>
+  <si>
+    <t>1 RUE LOUIS LICHOU 29808 BREST CEDEX 09</t>
+  </si>
+  <si>
+    <t>40 A RUE CAP FINISTERRE APPARTEMENT A803 29200 BREST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +247,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +289,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="NiveauLigne_4" xfId="1" builtinId="1" iLevel="3"/>
@@ -559,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,6 +1123,94 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="4">
+        <v>22</v>
+      </c>
+      <c r="U7" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="V7" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
